--- a/output/fit_clients/fit_round_194.xlsx
+++ b/output/fit_clients/fit_round_194.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1580319854.002136</v>
+        <v>1923481489.84824</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07028950203598458</v>
+        <v>0.1087457762812775</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04384683601118165</v>
+        <v>0.03110492035816603</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>790159866.2298204</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2451363520.501443</v>
+        <v>2260537974.434601</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1377087602044036</v>
+        <v>0.1814665915191886</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03797163845518628</v>
+        <v>0.03649062322137615</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1225681870.189586</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3435774105.577372</v>
+        <v>4408801359.178934</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1463779339627365</v>
+        <v>0.1429456255996701</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02513072101821121</v>
+        <v>0.0282578876029927</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1717887026.970151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2802245568.945587</v>
+        <v>3157822001.065884</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07010787436449496</v>
+        <v>0.08412275536255714</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04476748696982961</v>
+        <v>0.03911203803709825</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1401122867.35479</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1756463599.035909</v>
+        <v>2809343539.8014</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1242789150615396</v>
+        <v>0.1119787409026618</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03518765204342511</v>
+        <v>0.04746039440519646</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>31</v>
-      </c>
-      <c r="J6" t="n">
-        <v>878231855.4440833</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2340140046.782337</v>
+        <v>2086289084.152956</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0729251101025721</v>
+        <v>0.06468987312589086</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03862803072481221</v>
+        <v>0.04776131709114411</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1170070051.755373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3796564720.712678</v>
+        <v>3326632137.659369</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1994606089365764</v>
+        <v>0.2000973020836752</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03315612043636401</v>
+        <v>0.03099806783532952</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>62</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1898282499.276973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1477433976.52602</v>
+        <v>1524160993.65805</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1865192250172285</v>
+        <v>0.1474070119955218</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03479004384378319</v>
+        <v>0.02523384677267681</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>738717087.3448279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5287999665.895442</v>
+        <v>5350066706.023087</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1495909382963656</v>
+        <v>0.1349614774329349</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04334522198211214</v>
+        <v>0.04958289038434747</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>82</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2643999954.57249</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3814499619.332328</v>
+        <v>3003707519.855371</v>
       </c>
       <c r="F11" t="n">
-        <v>0.141218894176045</v>
+        <v>0.1839651184208104</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03018864631722723</v>
+        <v>0.03783354195429565</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>80</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1907249809.430877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2770602376.21675</v>
+        <v>2846257885.368593</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1713822421671774</v>
+        <v>0.1971423059560315</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05312451970575778</v>
+        <v>0.04190380573313254</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>68</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1385301185.072917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3644423024.914907</v>
+        <v>3514676275.704848</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08014644946799952</v>
+        <v>0.07633511530743971</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02136537844915762</v>
+        <v>0.02099522235378716</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>65</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1822211585.428291</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2730249560.138788</v>
+        <v>3526411202.144291</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1632061409505864</v>
+        <v>0.1247686159137198</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04224825091442506</v>
+        <v>0.02706892152519032</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>63</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1365124834.024175</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1118999791.927682</v>
+        <v>1325847968.39922</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1044219483425959</v>
+        <v>0.09282260404628022</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03075565219152822</v>
+        <v>0.04509927127819881</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>559499895.0580475</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2320193759.715814</v>
+        <v>2529167256.960968</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08529596732942658</v>
+        <v>0.09790661974338495</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04468310171012508</v>
+        <v>0.03406843955207704</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1160096926.714324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3391934156.631415</v>
+        <v>4534289714.218799</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1514069929548841</v>
+        <v>0.1525317744287818</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03740596424048524</v>
+        <v>0.03579295091764522</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>57</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1695967142.956908</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3338323850.064561</v>
+        <v>3927903183.260595</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1797046673083487</v>
+        <v>0.173489686690706</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03041984379834239</v>
+        <v>0.03240255105113676</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>63</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1669161930.778109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1299616302.98659</v>
+        <v>1042142936.320638</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1437058684071793</v>
+        <v>0.1850859294765785</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01766364238110294</v>
+        <v>0.02064210486546669</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>649808253.6184169</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1803939392.304266</v>
+        <v>2677126998.886444</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1428654855312458</v>
+        <v>0.1470978118720752</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02159074530677071</v>
+        <v>0.02552889916193146</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>901969743.3642117</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2211687287.39664</v>
+        <v>2292721031.882766</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06265187804583508</v>
+        <v>0.0800871959659603</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02780274355248069</v>
+        <v>0.03113859260094556</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1105843659.380529</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3222352574.113786</v>
+        <v>2802987576.522879</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1255008279502392</v>
+        <v>0.1446086387131528</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04525643085372924</v>
+        <v>0.05660135691413974</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>53</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1611176335.251416</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1161058024.554957</v>
+        <v>1030330952.052547</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1314010490903351</v>
+        <v>0.1262355180927093</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05273226544245294</v>
+        <v>0.04122405338028472</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>580529055.3012409</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3257796238.566417</v>
+        <v>3307603069.042378</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1457707987068577</v>
+        <v>0.1243924978882406</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02710847560116171</v>
+        <v>0.03204419730139555</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>57</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1628898137.161643</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1034845983.230817</v>
+        <v>966665545.0192329</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09453599993238737</v>
+        <v>0.1086822408854823</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02262904529761423</v>
+        <v>0.01982488514069136</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>517423047.5645142</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1169275042.36113</v>
+        <v>1088184206.820358</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08691477327545698</v>
+        <v>0.1008599448352974</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03232079481305056</v>
+        <v>0.03673723975284943</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>584637534.6782322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3285662938.439472</v>
+        <v>4621415018.558004</v>
       </c>
       <c r="F27" t="n">
-        <v>0.128312387923348</v>
+        <v>0.107203949459982</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02542645593408622</v>
+        <v>0.02268383526809246</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1642831514.831697</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2735091041.717195</v>
+        <v>3435390052.42623</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1131458474242228</v>
+        <v>0.1331889780686382</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03615109702399732</v>
+        <v>0.04257288520937907</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>62</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1367545509.087776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5720538731.941875</v>
+        <v>4411183516.565144</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1166669386203041</v>
+        <v>0.1382695846880404</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04582352116180897</v>
+        <v>0.03612095222118065</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>88</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2860269263.563724</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1536536209.695132</v>
+        <v>1721799544.049202</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0900225162013242</v>
+        <v>0.09496584102352401</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03908114077121375</v>
+        <v>0.02663467683788581</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>768268089.5034435</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1485123100.849497</v>
+        <v>1121247409.364768</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1102543635623539</v>
+        <v>0.06770048305353167</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03406147146142256</v>
+        <v>0.03565337793015839</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>742561434.7539293</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1146844811.162554</v>
+        <v>1410713998.901215</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08802232482717104</v>
+        <v>0.1144286410714797</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02662693564022594</v>
+        <v>0.03281785373160202</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>573422400.7767043</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1926008046.89121</v>
+        <v>2471660796.930474</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1935320385025534</v>
+        <v>0.1889320460411872</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05964912652783266</v>
+        <v>0.04073964782505167</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>59</v>
-      </c>
-      <c r="J33" t="n">
-        <v>963004110.5093701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1496529709.433293</v>
+        <v>1083323135.898378</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1023748950914976</v>
+        <v>0.1156197271659677</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02300754171322949</v>
+        <v>0.02213899026705643</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>748264811.161382</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1089478633.574331</v>
+        <v>1155031068.551402</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08541480509706084</v>
+        <v>0.08157459812118958</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0280242257335323</v>
+        <v>0.03689419429483026</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>544739315.7253833</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2672712620.694821</v>
+        <v>3003961077.771873</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1581100641274666</v>
+        <v>0.1301535148309263</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0183982133987797</v>
+        <v>0.02670292048781782</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>50</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1336356318.478516</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2613114879.359859</v>
+        <v>2535915053.869489</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1042648135487487</v>
+        <v>0.09725356485148412</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03350913439935558</v>
+        <v>0.03191316434419033</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1306557551.285989</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1919099184.479396</v>
+        <v>1614168355.818838</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1134669218284783</v>
+        <v>0.09575136467258037</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02823183145069662</v>
+        <v>0.03300068207142923</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>959549582.2708986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1672803899.321473</v>
+        <v>1460280713.396267</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1910969704461368</v>
+        <v>0.1417443463126026</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02022640485071484</v>
+        <v>0.02565636920679537</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>836401993.8491012</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1103149114.498971</v>
+        <v>1579116920.387952</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09803793269579643</v>
+        <v>0.09843238058909604</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04949505791509802</v>
+        <v>0.0520069533049513</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>551574622.7460734</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1912965077.206399</v>
+        <v>2682004079.658438</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1084156929579134</v>
+        <v>0.1641740258793639</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04402847331849821</v>
+        <v>0.03921533356298775</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>48</v>
-      </c>
-      <c r="J41" t="n">
-        <v>956482621.2956686</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4272328309.14577</v>
+        <v>3990868122.467419</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1118657422107094</v>
+        <v>0.08619053938075283</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04030616647439667</v>
+        <v>0.02814127875687272</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2136164202.564018</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2675479700.216576</v>
+        <v>2440540456.621801</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1285067923003582</v>
+        <v>0.1537098385373902</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01642117057009505</v>
+        <v>0.02067655542523249</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>66</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1337739881.113129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2166088314.189662</v>
+        <v>1502736207.491332</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0987663229605508</v>
+        <v>0.06816318995387176</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02718856658903923</v>
+        <v>0.02973204815729113</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1083044296.551174</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2197751211.275937</v>
+        <v>2358157089.280439</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1823280544456777</v>
+        <v>0.1898710735393965</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04132157554297773</v>
+        <v>0.04607262297858659</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1098875616.391984</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4256559617.565729</v>
+        <v>4859682667.808106</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1602715306817462</v>
+        <v>0.1532418652362575</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0602963090462458</v>
+        <v>0.04198124235218423</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>69</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2128279792.994079</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3351767241.333385</v>
+        <v>4671456979.284505</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1613929717498499</v>
+        <v>0.1980269380582296</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04911765977055336</v>
+        <v>0.05118568364624013</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>52</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1675883583.042318</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4704810146.70715</v>
+        <v>3706197482.452849</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06727863354258892</v>
+        <v>0.1014226498152476</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02668050046973925</v>
+        <v>0.0339053362155161</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2352405066.759414</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1297926732.207372</v>
+        <v>1721832632.887521</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1369854277023728</v>
+        <v>0.157761267675525</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02875778886726143</v>
+        <v>0.03399274540270303</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>648963429.5261706</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3471840844.669014</v>
+        <v>4038094417.029792</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1537294813522782</v>
+        <v>0.1593214042653191</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03449157226636797</v>
+        <v>0.04570038974428237</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>66</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1735920448.576741</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1235962806.052784</v>
+        <v>1035741953.666139</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1851254771775307</v>
+        <v>0.1871462857749254</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03982912938543497</v>
+        <v>0.0497181711302218</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>617981448.7326362</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4895577884.036639</v>
+        <v>4362308330.41465</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09902149989286761</v>
+        <v>0.1155571753354662</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06181306937506336</v>
+        <v>0.04503069036650155</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>80</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2447788945.762799</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3474005396.33842</v>
+        <v>2469177527.12687</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1281074908134543</v>
+        <v>0.2031794900298756</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02297161107564781</v>
+        <v>0.028696745421291</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>56</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1737002697.883697</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3387307217.677741</v>
+        <v>4065696313.347427</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1148737296768349</v>
+        <v>0.1210679045074678</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05136069307257621</v>
+        <v>0.03279795738518294</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>64</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1693653624.783548</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4641322953.444917</v>
+        <v>3880195851.794297</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1770584848030788</v>
+        <v>0.1649486747832693</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02622032194022425</v>
+        <v>0.02355168186755575</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2320661479.899776</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1641078532.345941</v>
+        <v>1513586332.762155</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1171886370357998</v>
+        <v>0.1029189507311157</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03528196681455506</v>
+        <v>0.04332586909808704</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>820539287.4777445</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3436683161.084949</v>
+        <v>3496451450.828094</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1436615668652496</v>
+        <v>0.1244375738595762</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01872338565565013</v>
+        <v>0.02049562656779255</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>62</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1718341621.594122</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1785389490.860844</v>
+        <v>1262676654.189747</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1285908344378213</v>
+        <v>0.1751825594234389</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03815443115146742</v>
+        <v>0.03359478577209369</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>892694750.5004849</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4658193269.459289</v>
+        <v>5173024927.099234</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08402170926245578</v>
+        <v>0.1005280193906285</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04449463359687809</v>
+        <v>0.03619678785169241</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>53</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2329096578.92151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2736929143.503177</v>
+        <v>2630492382.556763</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1751897310435802</v>
+        <v>0.177371649403445</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02208500993918825</v>
+        <v>0.02671318610056278</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1368464614.485168</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2534539860.978534</v>
+        <v>2629709851.214958</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1620758239134776</v>
+        <v>0.1787291796077044</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02727343139902825</v>
+        <v>0.02294221076412781</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>67</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1267269954.829087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1313528827.720657</v>
+        <v>1967551263.993681</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1883383433620225</v>
+        <v>0.1178336042811799</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03675099714692837</v>
+        <v>0.04508366509435786</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>656764368.9296231</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4748954195.17806</v>
+        <v>5087656714.964109</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09976435464230117</v>
+        <v>0.0866235559686674</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0292273812693921</v>
+        <v>0.0460049999987879</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>56</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2374477126.518146</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3637421190.290997</v>
+        <v>4262947054.093043</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1248958254607386</v>
+        <v>0.1854194744434988</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02699013055937977</v>
+        <v>0.02884817091631416</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>60</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1818710605.480449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4928834766.232633</v>
+        <v>3820519625.685463</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1366119629518029</v>
+        <v>0.1310913118407091</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0231096275503533</v>
+        <v>0.02352654643597307</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>70</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2464417346.259402</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3791940598.971821</v>
+        <v>4522705791.66446</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1039467311320656</v>
+        <v>0.1516664311622317</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04347589198823983</v>
+        <v>0.04360668814777824</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>56</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1895970261.896273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3163678554.080873</v>
+        <v>3382054483.67125</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07959545135197239</v>
+        <v>0.09564911987307224</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05026679593877446</v>
+        <v>0.04353685439149001</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>63</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1581839281.430942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6038673576.152792</v>
+        <v>4925366607.739506</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1005897925037703</v>
+        <v>0.1156924128338596</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05151124480228175</v>
+        <v>0.0326579928500037</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>62</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3019336907.393514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1577549379.559263</v>
+        <v>1921015924.203075</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1393741756577308</v>
+        <v>0.1224458524327828</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04752440274865122</v>
+        <v>0.05028639523155203</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>788774640.070577</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3141001987.490318</v>
+        <v>3047368995.727512</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06216135354245653</v>
+        <v>0.09252654646993495</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04410097504558471</v>
+        <v>0.03632216932669734</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>56</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1570500979.954278</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4443091671.687706</v>
+        <v>3858353569.421781</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1664916882549721</v>
+        <v>0.1416449251855174</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03254297556085483</v>
+        <v>0.03124633542023185</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>71</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2221545899.927344</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1831655277.324965</v>
+        <v>2170277190.738863</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09158579535947151</v>
+        <v>0.09494950574215007</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05124564966035882</v>
+        <v>0.04161055819749766</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>915827612.1483222</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2316245627.454682</v>
+        <v>2320074254.806188</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08934196354827109</v>
+        <v>0.07669313614350236</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04454265176990841</v>
+        <v>0.04095226538781093</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>73</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1158122872.313278</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3695336770.309804</v>
+        <v>3184238851.607622</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1265122611147675</v>
+        <v>0.1448562767814451</v>
       </c>
       <c r="G74" t="n">
-        <v>0.026486775477458</v>
+        <v>0.03300272958251461</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>66</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1847668390.430375</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2111772820.528901</v>
+        <v>2197256263.809948</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1325945304256136</v>
+        <v>0.1415950441946202</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03384873494591971</v>
+        <v>0.0325570967566739</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1055886364.003818</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4836495745.682952</v>
+        <v>4965966369.530017</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1251257578320599</v>
+        <v>0.1003442234992934</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03260657439199764</v>
+        <v>0.03186663861728902</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2418247892.637158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1723429204.827654</v>
+        <v>2101777717.710309</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1479206287555334</v>
+        <v>0.1382155379769984</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03055795400901335</v>
+        <v>0.02287922189140766</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>861714623.0686508</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3396794202.112317</v>
+        <v>3059357498.583876</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1163682693448287</v>
+        <v>0.1367855145863794</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05235656130978934</v>
+        <v>0.03739245211570993</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>68</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1698397109.940565</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1742919192.098422</v>
+        <v>1367655314.594948</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1415989999292582</v>
+        <v>0.1479670389576311</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02641306373264607</v>
+        <v>0.03926194323170809</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>871459672.7380998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3535945211.994596</v>
+        <v>4942633852.10077</v>
       </c>
       <c r="F80" t="n">
-        <v>0.086248469799567</v>
+        <v>0.1050928745472844</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02832660128486295</v>
+        <v>0.02555434776141879</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>40</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1767972582.352244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5056810103.009231</v>
+        <v>3403897998.647253</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1206089757899855</v>
+        <v>0.08891792136443526</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02058528500055425</v>
+        <v>0.0311602300677834</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2528405053.904651</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3944746288.751258</v>
+        <v>4033670109.902564</v>
       </c>
       <c r="F82" t="n">
-        <v>0.208137973864326</v>
+        <v>0.1683164848053398</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02747794590378008</v>
+        <v>0.02663058661568448</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>68</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1972373187.203181</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2386464908.039938</v>
+        <v>1942371107.606624</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1464014121847741</v>
+        <v>0.1091209851263519</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04382366988947169</v>
+        <v>0.03798241151280032</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1193232487.434543</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1590912188.308479</v>
+        <v>1964812746.091663</v>
       </c>
       <c r="F84" t="n">
-        <v>0.110932064993727</v>
+        <v>0.09489089724947811</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05171215000031786</v>
+        <v>0.03178856715262009</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>795456159.0321355</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2543067519.42725</v>
+        <v>3670092517.23597</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1750735704055162</v>
+        <v>0.1656416170522687</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04737643957546815</v>
+        <v>0.0374372684705994</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>73</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1271533769.384138</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2228326165.209566</v>
+        <v>2576479522.836512</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1497729682963109</v>
+        <v>0.1593473900553187</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02312699173926593</v>
+        <v>0.02628063542516414</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1114163141.9667</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1439372091.490272</v>
+        <v>1357828665.46174</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1744056691721808</v>
+        <v>0.1830499489973623</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0271338683030138</v>
+        <v>0.02919060531543977</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>719686162.6693404</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3504020149.083107</v>
+        <v>2563438619.200413</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1716664061756606</v>
+        <v>0.1383808760450995</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02924332924107649</v>
+        <v>0.02923250413547894</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>77</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1752010154.769515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3232248236.774983</v>
+        <v>2337794028.749016</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1336264383008444</v>
+        <v>0.1035819486372465</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03376065640403566</v>
+        <v>0.03717378542730111</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>68</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1616124139.444317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1370577638.927451</v>
+        <v>1398974914.800315</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1248178217149598</v>
+        <v>0.09860039091756673</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04630556951420637</v>
+        <v>0.0357549226446008</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>685288774.4823276</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1346164350.084251</v>
+        <v>1506304972.459139</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1829634969614696</v>
+        <v>0.1478505975467636</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04151614482016909</v>
+        <v>0.0375423752016556</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>673082234.4368786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2636468254.387738</v>
+        <v>2380278171.380868</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1048827817042904</v>
+        <v>0.08608557817638866</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04549208525368877</v>
+        <v>0.0323746804588032</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>47</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1318234121.439259</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4656531123.189988</v>
+        <v>4729454216.916797</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1362128083080079</v>
+        <v>0.1131950818342357</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0340714402083292</v>
+        <v>0.04412206179457261</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>60</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2328265519.742653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2428549330.873604</v>
+        <v>2461414770.35623</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1036028556377228</v>
+        <v>0.1454561266752186</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02789049377125833</v>
+        <v>0.03637191469466551</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1214274719.533477</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3110129466.801445</v>
+        <v>2469309151.613953</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1237765786927871</v>
+        <v>0.1095498233036362</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04908854748188376</v>
+        <v>0.03545906966847255</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>47</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1555064725.08582</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2021047038.404332</v>
+        <v>1567671465.78365</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09281620013719294</v>
+        <v>0.09271838984004195</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04183824602424073</v>
+        <v>0.04197899929508154</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1010523503.907858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4100011324.915948</v>
+        <v>5314081581.184842</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1590757312964337</v>
+        <v>0.1141026895316625</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02702819259518881</v>
+        <v>0.02285512946149813</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2050005726.857876</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3708980035.449282</v>
+        <v>3413593085.733117</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1024077367099036</v>
+        <v>0.1193585021338575</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02157156694612317</v>
+        <v>0.03083685761294165</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>51</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1854490050.481441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2466188426.793933</v>
+        <v>2178457135.146575</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09077223343024633</v>
+        <v>0.1033386634998248</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02147674472294167</v>
+        <v>0.0248330532049435</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>61</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1233094160.625099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4133812997.64455</v>
+        <v>3477456031.26909</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1788880172389956</v>
+        <v>0.137418564107793</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0232726415805496</v>
+        <v>0.02427363673858458</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>61</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2066906580.161946</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2184243214.903829</v>
+        <v>2179724315.555531</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2203459752816022</v>
+        <v>0.1756442999193128</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04492009452328438</v>
+        <v>0.03905564793141306</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>78</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1092121588.66775</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_194.xlsx
+++ b/output/fit_clients/fit_round_194.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1923481489.84824</v>
+        <v>2132304016.28669</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1087457762812775</v>
+        <v>0.06974732592144944</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03110492035816603</v>
+        <v>0.03818102073389595</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2260537974.434601</v>
+        <v>1670449883.599544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1814665915191886</v>
+        <v>0.1587503538213269</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03649062322137615</v>
+        <v>0.04080527418799602</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4408801359.178934</v>
+        <v>4646280983.708982</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1429456255996701</v>
+        <v>0.1523957018264646</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0282578876029927</v>
+        <v>0.02980278801831949</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3157822001.065884</v>
+        <v>3836740739.591481</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08412275536255714</v>
+        <v>0.1020344427874025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03911203803709825</v>
+        <v>0.05051328735010231</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2809343539.8014</v>
+        <v>2449185470.814578</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1119787409026618</v>
+        <v>0.09002495145797958</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04746039440519646</v>
+        <v>0.03935025528722545</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2086289084.152956</v>
+        <v>2794137895.759911</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06468987312589086</v>
+        <v>0.06372376470707646</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04776131709114411</v>
+        <v>0.03634564273889312</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3326632137.659369</v>
+        <v>2652216443.753425</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2000973020836752</v>
+        <v>0.1767209681436867</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03099806783532952</v>
+        <v>0.02894395392771284</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1524160993.65805</v>
+        <v>2110584619.460753</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1474070119955218</v>
+        <v>0.1886441120727797</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02523384677267681</v>
+        <v>0.03374163098412289</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5350066706.023087</v>
+        <v>4807123552.535671</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1349614774329349</v>
+        <v>0.1436760927375071</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04958289038434747</v>
+        <v>0.05347702144469745</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3003707519.855371</v>
+        <v>4253150739.233669</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1839651184208104</v>
+        <v>0.1359654897583391</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03783354195429565</v>
+        <v>0.04379732544375448</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2846257885.368593</v>
+        <v>2495480211.175855</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1971423059560315</v>
+        <v>0.1408895992030449</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04190380573313254</v>
+        <v>0.05223088775572677</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3514676275.704848</v>
+        <v>4543635700.136624</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07633511530743971</v>
+        <v>0.07866276040844826</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02099522235378716</v>
+        <v>0.0203592431531092</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3526411202.144291</v>
+        <v>3370363151.41061</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1247686159137198</v>
+        <v>0.1366920726143152</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02706892152519032</v>
+        <v>0.03440404932970204</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1325847968.39922</v>
+        <v>1663541252.390487</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09282260404628022</v>
+        <v>0.07976153894870003</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04509927127819881</v>
+        <v>0.03686332498219549</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2529167256.960968</v>
+        <v>2154245234.535522</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09790661974338495</v>
+        <v>0.09249969126035415</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03406843955207704</v>
+        <v>0.03452167078589997</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4534289714.218799</v>
+        <v>3805973196.378759</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1525317744287818</v>
+        <v>0.1609514145089055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03579295091764522</v>
+        <v>0.05016836892043984</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3927903183.260595</v>
+        <v>3959110919.461382</v>
       </c>
       <c r="F18" t="n">
-        <v>0.173489686690706</v>
+        <v>0.1143936977210959</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03240255105113676</v>
+        <v>0.0323411440008585</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1042142936.320638</v>
+        <v>1091672887.803011</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1850859294765785</v>
+        <v>0.1558241195724343</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02064210486546669</v>
+        <v>0.02024343001771155</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2677126998.886444</v>
+        <v>1949871449.511338</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1470978118720752</v>
+        <v>0.09955472281970475</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02552889916193146</v>
+        <v>0.02394493570722857</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2292721031.882766</v>
+        <v>2192038481.074146</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0800871959659603</v>
+        <v>0.07805791939149664</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03113859260094556</v>
+        <v>0.03010121942003481</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2802987576.522879</v>
+        <v>3539572766.485611</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1446086387131528</v>
+        <v>0.1157414309280485</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05660135691413974</v>
+        <v>0.04744288631863272</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1030330952.052547</v>
+        <v>1187682768.034755</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1262355180927093</v>
+        <v>0.1136649011097208</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04122405338028472</v>
+        <v>0.05143900366423271</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3307603069.042378</v>
+        <v>3816805370.504963</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1243924978882406</v>
+        <v>0.1293622063449284</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03204419730139555</v>
+        <v>0.02814000007743026</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>966665545.0192329</v>
+        <v>950722391.3604889</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1086822408854823</v>
+        <v>0.08033745169234703</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01982488514069136</v>
+        <v>0.02333614177659563</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1088184206.820358</v>
+        <v>1283763579.409379</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1008599448352974</v>
+        <v>0.08253688692956168</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03673723975284943</v>
+        <v>0.02584469324892296</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4621415018.558004</v>
+        <v>3492625722.597143</v>
       </c>
       <c r="F27" t="n">
-        <v>0.107203949459982</v>
+        <v>0.1443900170822389</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02268383526809246</v>
+        <v>0.02489370919223668</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3435390052.42623</v>
+        <v>2989204441.199016</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1331889780686382</v>
+        <v>0.1271106676287451</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04257288520937907</v>
+        <v>0.04421387404473022</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4411183516.565144</v>
+        <v>5007313507.276925</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1382695846880404</v>
+        <v>0.1245625911766098</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03612095222118065</v>
+        <v>0.03949957155124473</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1721799544.049202</v>
+        <v>1595835920.567189</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09496584102352401</v>
+        <v>0.08531275843130076</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02663467683788581</v>
+        <v>0.02786555458435629</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1121247409.364768</v>
+        <v>1360365640.537673</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06770048305353167</v>
+        <v>0.09844407582214212</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03565337793015839</v>
+        <v>0.05004521212938437</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1410713998.901215</v>
+        <v>1199394954.577274</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1144286410714797</v>
+        <v>0.1060000259351873</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03281785373160202</v>
+        <v>0.0271551259289129</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2471660796.930474</v>
+        <v>2683640129.19715</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1889320460411872</v>
+        <v>0.1780411855222316</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04073964782505167</v>
+        <v>0.0381905581506328</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1083323135.898378</v>
+        <v>1325781881.486298</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1156197271659677</v>
+        <v>0.0764473629038733</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02213899026705643</v>
+        <v>0.01733707013049315</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1155031068.551402</v>
+        <v>951484465.1787077</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08157459812118958</v>
+        <v>0.09813473881214541</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03689419429483026</v>
+        <v>0.03305699892224261</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3003961077.771873</v>
+        <v>2173449489.434748</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1301535148309263</v>
+        <v>0.1424506261164592</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02670292048781782</v>
+        <v>0.02059025903152138</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2535915053.869489</v>
+        <v>2165066884.52565</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09725356485148412</v>
+        <v>0.08761823523413551</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03191316434419033</v>
+        <v>0.02697247660829807</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1614168355.818838</v>
+        <v>2043368190.833222</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09575136467258037</v>
+        <v>0.1054803029186665</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03300068207142923</v>
+        <v>0.02912371773981811</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1460280713.396267</v>
+        <v>2170618708.152084</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1417443463126026</v>
+        <v>0.1638271432828107</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02565636920679537</v>
+        <v>0.02101449644219051</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1579116920.387952</v>
+        <v>1758196502.738914</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09843238058909604</v>
+        <v>0.1389424770406987</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0520069533049513</v>
+        <v>0.04089267334653553</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2682004079.658438</v>
+        <v>2145129920.732106</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1641740258793639</v>
+        <v>0.1322769103927509</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03921533356298775</v>
+        <v>0.0304286915817362</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3990868122.467419</v>
+        <v>4006779021.364746</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08619053938075283</v>
+        <v>0.1085475900569758</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02814127875687272</v>
+        <v>0.0335183093517897</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2440540456.621801</v>
+        <v>2765739378.609362</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1537098385373902</v>
+        <v>0.1475839406176007</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02067655542523249</v>
+        <v>0.02596539685389388</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1502736207.491332</v>
+        <v>1757254843.21647</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06816318995387176</v>
+        <v>0.1016380916111459</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02973204815729113</v>
+        <v>0.03469055841078603</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2358157089.280439</v>
+        <v>2251056236.534275</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1898710735393965</v>
+        <v>0.1893519879568465</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04607262297858659</v>
+        <v>0.05587302914705506</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4859682667.808106</v>
+        <v>4026647525.889956</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1532418652362575</v>
+        <v>0.138853406054237</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04198124235218423</v>
+        <v>0.05827219127304931</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4671456979.284505</v>
+        <v>3208865041.184876</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1980269380582296</v>
+        <v>0.1910109263482128</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05118568364624013</v>
+        <v>0.05590287107381556</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3706197482.452849</v>
+        <v>4288248726.165736</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1014226498152476</v>
+        <v>0.07997592320786746</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0339053362155161</v>
+        <v>0.03260807766284679</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1721832632.887521</v>
+        <v>1202768172.060174</v>
       </c>
       <c r="F49" t="n">
-        <v>0.157761267675525</v>
+        <v>0.1222341934533884</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03399274540270303</v>
+        <v>0.03031215554392026</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4038094417.029792</v>
+        <v>3596302821.542188</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1593214042653191</v>
+        <v>0.1784083180042776</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04570038974428237</v>
+        <v>0.04681310536048859</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1035741953.666139</v>
+        <v>1372019084.355098</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1871462857749254</v>
+        <v>0.1897972334104095</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0497181711302218</v>
+        <v>0.03478983895141832</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4362308330.41465</v>
+        <v>4264591865.722522</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1155571753354662</v>
+        <v>0.0881380070176105</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04503069036650155</v>
+        <v>0.04866819047259762</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2469177527.12687</v>
+        <v>2964768191.332776</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2031794900298756</v>
+        <v>0.1671532604907933</v>
       </c>
       <c r="G53" t="n">
-        <v>0.028696745421291</v>
+        <v>0.0351318430266484</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4065696313.347427</v>
+        <v>3527813423.61522</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1210679045074678</v>
+        <v>0.1511268334293167</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03279795738518294</v>
+        <v>0.04350943784817713</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3880195851.794297</v>
+        <v>3729444332.8771</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1649486747832693</v>
+        <v>0.1965903556794101</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02355168186755575</v>
+        <v>0.0307760167849965</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1513586332.762155</v>
+        <v>1507408573.838393</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1029189507311157</v>
+        <v>0.1638636797620958</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04332586909808704</v>
+        <v>0.05042645406786365</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3496451450.828094</v>
+        <v>3864272333.155444</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1244375738595762</v>
+        <v>0.1366507784324366</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02049562656779255</v>
+        <v>0.0275493357126477</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1262676654.189747</v>
+        <v>1633960091.921788</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1751825594234389</v>
+        <v>0.1587204461090701</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03359478577209369</v>
+        <v>0.03709987118975937</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5173024927.099234</v>
+        <v>3464369243.105316</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1005280193906285</v>
+        <v>0.09649035660601417</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03619678785169241</v>
+        <v>0.03229018757004475</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2630492382.556763</v>
+        <v>2570667618.833268</v>
       </c>
       <c r="F60" t="n">
-        <v>0.177371649403445</v>
+        <v>0.1688481086405</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02671318610056278</v>
+        <v>0.02963245546221163</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2629709851.214958</v>
+        <v>2859952176.212681</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1787291796077044</v>
+        <v>0.1404971117446747</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02294221076412781</v>
+        <v>0.02684002981544246</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1967551263.993681</v>
+        <v>1329201562.63795</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1178336042811799</v>
+        <v>0.1818631533737921</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04508366509435786</v>
+        <v>0.03837975606906831</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5087656714.964109</v>
+        <v>3850187161.196703</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0866235559686674</v>
+        <v>0.09721172968908336</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0460049999987879</v>
+        <v>0.03336006724590779</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4262947054.093043</v>
+        <v>4876815762.4103</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1854194744434988</v>
+        <v>0.1578967804473953</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02884817091631416</v>
+        <v>0.03479960004980454</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3820519625.685463</v>
+        <v>3821506372.544684</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1310913118407091</v>
+        <v>0.1499065160865062</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02352654643597307</v>
+        <v>0.02535671727160663</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4522705791.66446</v>
+        <v>4527124204.237603</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1516664311622317</v>
+        <v>0.102977739834391</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04360668814777824</v>
+        <v>0.03979696165082182</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3382054483.67125</v>
+        <v>2806339964.751998</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09564911987307224</v>
+        <v>0.08054746341320072</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04353685439149001</v>
+        <v>0.05118046016348036</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4925366607.739506</v>
+        <v>5893137911.269329</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1156924128338596</v>
+        <v>0.1568627472549377</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0326579928500037</v>
+        <v>0.04389955448610668</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1921015924.203075</v>
+        <v>2217300488.852713</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1224458524327828</v>
+        <v>0.1189430015334709</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05028639523155203</v>
+        <v>0.04586049721371136</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3047368995.727512</v>
+        <v>3491299684.082836</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09252654646993495</v>
+        <v>0.09564515561736066</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03632216932669734</v>
+        <v>0.04272265031999352</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3858353569.421781</v>
+        <v>3461591738.922482</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1416449251855174</v>
+        <v>0.1185393447645754</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03124633542023185</v>
+        <v>0.03106623276000386</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2170277190.738863</v>
+        <v>1754645446.75127</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09494950574215007</v>
+        <v>0.08868908688222626</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04161055819749766</v>
+        <v>0.03455024198909775</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2320074254.806188</v>
+        <v>2861897232.762525</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07669313614350236</v>
+        <v>0.0968369984498758</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04095226538781093</v>
+        <v>0.05261949380715656</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3184238851.607622</v>
+        <v>3610916972.270262</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1448562767814451</v>
+        <v>0.1161677596482479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03300272958251461</v>
+        <v>0.0318330341535313</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2197256263.809948</v>
+        <v>2484712557.950391</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1415950441946202</v>
+        <v>0.1448956429775375</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0325570967566739</v>
+        <v>0.02460259684003714</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4965966369.530017</v>
+        <v>4181069089.796196</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1003442234992934</v>
+        <v>0.09609013660962275</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03186663861728902</v>
+        <v>0.02349764232369392</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2101777717.710309</v>
+        <v>2208091296.275819</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1382155379769984</v>
+        <v>0.1835098246806262</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02287922189140766</v>
+        <v>0.0280147797010099</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3059357498.583876</v>
+        <v>4609695893.824581</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1367855145863794</v>
+        <v>0.1133998840887698</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03739245211570993</v>
+        <v>0.04885435685186581</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1367655314.594948</v>
+        <v>1559281675.559535</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1479670389576311</v>
+        <v>0.1343897987900043</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03926194323170809</v>
+        <v>0.03336302979658297</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4942633852.10077</v>
+        <v>3447564348.665605</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1050928745472844</v>
+        <v>0.07835919775920532</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02555434776141879</v>
+        <v>0.02463614476510671</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3403897998.647253</v>
+        <v>3768691938.616705</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08891792136443526</v>
+        <v>0.09015325866240015</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0311602300677834</v>
+        <v>0.0254106684390767</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4033670109.902564</v>
+        <v>5377637494.741241</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1683164848053398</v>
+        <v>0.1573407557236372</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02663058661568448</v>
+        <v>0.02338548469363226</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1942371107.606624</v>
+        <v>1840078748.886799</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1091209851263519</v>
+        <v>0.1131380796770346</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03798241151280032</v>
+        <v>0.04386724815690931</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1964812746.091663</v>
+        <v>2247770500.569119</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09489089724947811</v>
+        <v>0.09352282109831676</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03178856715262009</v>
+        <v>0.04037370645180575</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3670092517.23597</v>
+        <v>2898717604.704608</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1656416170522687</v>
+        <v>0.1299193252536347</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0374372684705994</v>
+        <v>0.04605096945103462</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2576479522.836512</v>
+        <v>2658014851.967096</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1593473900553187</v>
+        <v>0.146577948546664</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02628063542516414</v>
+        <v>0.02406967438455012</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1357828665.46174</v>
+        <v>1213862788.972839</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1830499489973623</v>
+        <v>0.13881873378241</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02919060531543977</v>
+        <v>0.03916443541940231</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2563438619.200413</v>
+        <v>3225521644.04251</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1383808760450995</v>
+        <v>0.1483331539989098</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02923250413547894</v>
+        <v>0.02442035516585482</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2337794028.749016</v>
+        <v>2848684093.85272</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1035819486372465</v>
+        <v>0.1110763878751412</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03717378542730111</v>
+        <v>0.03857936021676945</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1398974914.800315</v>
+        <v>1957163723.798835</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09860039091756673</v>
+        <v>0.09848441372490718</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0357549226446008</v>
+        <v>0.04143147424472614</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1506304972.459139</v>
+        <v>1282769316.404469</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1478505975467636</v>
+        <v>0.129581090412361</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0375423752016556</v>
+        <v>0.04717153211493946</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2380278171.380868</v>
+        <v>2717418015.31938</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08608557817638866</v>
+        <v>0.0954802078677409</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0323746804588032</v>
+        <v>0.03412532260912288</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4729454216.916797</v>
+        <v>3051016731.175903</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1131950818342357</v>
+        <v>0.1251142019131393</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04412206179457261</v>
+        <v>0.05141648663390064</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2461414770.35623</v>
+        <v>1642038504.927277</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1454561266752186</v>
+        <v>0.1580090246589406</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03637191469466551</v>
+        <v>0.0408460918774096</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2469309151.613953</v>
+        <v>2921108175.841558</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1095498233036362</v>
+        <v>0.1320300966677352</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03545906966847255</v>
+        <v>0.03463966548340702</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1567671465.78365</v>
+        <v>2297488667.438447</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09271838984004195</v>
+        <v>0.1317359466516733</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04197899929508154</v>
+        <v>0.03503417782347013</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5314081581.184842</v>
+        <v>3911096095.664613</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1141026895316625</v>
+        <v>0.1631770493443728</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02285512946149813</v>
+        <v>0.02084699861591958</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3413593085.733117</v>
+        <v>2726871174.156196</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1193585021338575</v>
+        <v>0.08767172637059693</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03083685761294165</v>
+        <v>0.02456802016539941</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2178457135.146575</v>
+        <v>3212166931.64645</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1033386634998248</v>
+        <v>0.1159438200982437</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0248330532049435</v>
+        <v>0.03364982508226923</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3477456031.26909</v>
+        <v>3737881187.404522</v>
       </c>
       <c r="F100" t="n">
-        <v>0.137418564107793</v>
+        <v>0.1188918935006813</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02427363673858458</v>
+        <v>0.02039582762793298</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2179724315.555531</v>
+        <v>2890315793.526661</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1756442999193128</v>
+        <v>0.2079499394854277</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03905564793141306</v>
+        <v>0.0352346479999822</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_194.xlsx
+++ b/output/fit_clients/fit_round_194.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2132304016.28669</v>
+        <v>2140340655.702786</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06974732592144944</v>
+        <v>0.1061801283389444</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03818102073389595</v>
+        <v>0.0358955873506708</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1670449883.599544</v>
+        <v>2509197422.116788</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1587503538213269</v>
+        <v>0.1451442720710882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04080527418799602</v>
+        <v>0.03528025509974873</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4646280983.708982</v>
+        <v>3674783098.180316</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1523957018264646</v>
+        <v>0.1155684388693588</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02980278801831949</v>
+        <v>0.03538251352263818</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>107</v>
+      </c>
+      <c r="J4" t="n">
+        <v>193</v>
+      </c>
+      <c r="K4" t="n">
+        <v>119.8982375516093</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3836740739.591481</v>
+        <v>4023016523.02593</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1020344427874025</v>
+        <v>0.09761827623772031</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05051328735010231</v>
+        <v>0.04330196216548372</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80</v>
+      </c>
+      <c r="J5" t="n">
+        <v>194</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2449185470.814578</v>
+        <v>2394206280.957312</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09002495145797958</v>
+        <v>0.1364570428696636</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03935025528722545</v>
+        <v>0.04094552701979477</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2794137895.759911</v>
+        <v>3141579831.391573</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06372376470707646</v>
+        <v>0.08097469309694966</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03634564273889312</v>
+        <v>0.04603435012042333</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2652216443.753425</v>
+        <v>3490017556.066002</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1767209681436867</v>
+        <v>0.1393739153926411</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02894395392771284</v>
+        <v>0.02293096985202133</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>54</v>
+      </c>
+      <c r="J8" t="n">
+        <v>194</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2110584619.460753</v>
+        <v>1409884073.774605</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1886441120727797</v>
+        <v>0.1714155840877771</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03374163098412289</v>
+        <v>0.03607309029038561</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4807123552.535671</v>
+        <v>5105462229.569908</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1436760927375071</v>
+        <v>0.1529937328674792</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05347702144469745</v>
+        <v>0.05183155594472776</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>177</v>
+      </c>
+      <c r="J10" t="n">
+        <v>194</v>
+      </c>
+      <c r="K10" t="n">
+        <v>132.1476257389403</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4253150739.233669</v>
+        <v>2963797113.899662</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1359654897583391</v>
+        <v>0.1224190805575158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04379732544375448</v>
+        <v>0.03332338594079458</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>79</v>
+      </c>
+      <c r="J11" t="n">
+        <v>192</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2495480211.175855</v>
+        <v>2524742251.265456</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1408895992030449</v>
+        <v>0.1967637812280314</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05223088775572677</v>
+        <v>0.0538121229475538</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4543635700.136624</v>
+        <v>5156520342.32263</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07866276040844826</v>
+        <v>0.06653095848911011</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0203592431531092</v>
+        <v>0.02603807984081579</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>97</v>
+      </c>
+      <c r="J13" t="n">
+        <v>194</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3370363151.41061</v>
+        <v>2926459234.713723</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1366920726143152</v>
+        <v>0.1445127910209227</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03440404932970204</v>
+        <v>0.03059075284886823</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>36</v>
+      </c>
+      <c r="J14" t="n">
+        <v>189</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1663541252.390487</v>
+        <v>1493508730.112604</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07976153894870003</v>
+        <v>0.09838372178169064</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03686332498219549</v>
+        <v>0.04522913927538623</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2154245234.535522</v>
+        <v>2245510990.639194</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09249969126035415</v>
+        <v>0.1113229426842905</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03452167078589997</v>
+        <v>0.04848305786437691</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3805973196.378759</v>
+        <v>3521701941.642955</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1609514145089055</v>
+        <v>0.1372210625855118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05016836892043984</v>
+        <v>0.04747919300977901</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>93</v>
+      </c>
+      <c r="J17" t="n">
+        <v>193</v>
+      </c>
+      <c r="K17" t="n">
+        <v>104.8053875644398</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3959110919.461382</v>
+        <v>3199488335.518583</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1143936977210959</v>
+        <v>0.1533305938918433</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0323411440008585</v>
+        <v>0.03287960254720807</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>48</v>
+      </c>
+      <c r="J18" t="n">
+        <v>194</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1091672887.803011</v>
+        <v>1371246350.535721</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1558241195724343</v>
+        <v>0.1304792517368176</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02024343001771155</v>
+        <v>0.01695733936386587</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1949871449.511338</v>
+        <v>2593503448.177418</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09955472281970475</v>
+        <v>0.1518924729281811</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02394493570722857</v>
+        <v>0.0273861703316167</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2192038481.074146</v>
+        <v>1836331506.471892</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07805791939149664</v>
+        <v>0.08587565393242087</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03010121942003481</v>
+        <v>0.03008417120767519</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3539572766.485611</v>
+        <v>2634399935.002407</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1157414309280485</v>
+        <v>0.1334882591686126</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04744288631863272</v>
+        <v>0.05710791701087038</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>49</v>
+      </c>
+      <c r="J22" t="n">
+        <v>192</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1187682768.034755</v>
+        <v>1353041565.114758</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1136649011097208</v>
+        <v>0.1751371585300482</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05143900366423271</v>
+        <v>0.04067967289065347</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3816805370.504963</v>
+        <v>2746064134.351466</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1293622063449284</v>
+        <v>0.09270112778482607</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02814000007743026</v>
+        <v>0.02933523539140514</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60</v>
+      </c>
+      <c r="J24" t="n">
+        <v>189</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>950722391.3604889</v>
+        <v>1241118171.732075</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08033745169234703</v>
+        <v>0.09391240373796937</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02333614177659563</v>
+        <v>0.0246841913004146</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1283763579.409379</v>
+        <v>1227031588.617589</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08253688692956168</v>
+        <v>0.1236997703145725</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02584469324892296</v>
+        <v>0.03253699920737271</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3492625722.597143</v>
+        <v>3734984012.061348</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1443900170822389</v>
+        <v>0.1173033900359081</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02489370919223668</v>
+        <v>0.01683493106121403</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>77</v>
+      </c>
+      <c r="J27" t="n">
+        <v>194</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1417,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2989204441.199016</v>
+        <v>3024805938.313772</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1271106676287451</v>
+        <v>0.1220265512313234</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04421387404473022</v>
+        <v>0.03473201908311484</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>40</v>
+      </c>
+      <c r="J28" t="n">
+        <v>193</v>
+      </c>
+      <c r="K28" t="n">
+        <v>82.65550229103607</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5007313507.276925</v>
+        <v>3658192562.135571</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1245625911766098</v>
+        <v>0.1019969445637864</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03949957155124473</v>
+        <v>0.04282113582772944</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>183</v>
+      </c>
+      <c r="J29" t="n">
+        <v>194</v>
+      </c>
+      <c r="K29" t="n">
+        <v>139.5780639242949</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1595835920.567189</v>
+        <v>1912795287.099559</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08531275843130076</v>
+        <v>0.1231721132283247</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02786555458435629</v>
+        <v>0.03609699823019374</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1360365640.537673</v>
+        <v>1246193640.951168</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09844407582214212</v>
+        <v>0.06768536514104002</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05004521212938437</v>
+        <v>0.04611686416107146</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1199394954.577274</v>
+        <v>1653280444.234587</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1060000259351873</v>
+        <v>0.1158958172227133</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0271551259289129</v>
+        <v>0.02593048709462584</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2683640129.19715</v>
+        <v>2786553770.13609</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1780411855222316</v>
+        <v>0.1609970051668924</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0381905581506328</v>
+        <v>0.05449042326460661</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1325781881.486298</v>
+        <v>1236191217.071367</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0764473629038733</v>
+        <v>0.1093657550513891</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01733707013049315</v>
+        <v>0.02844649993652765</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>951484465.1787077</v>
+        <v>1143623784.151708</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09813473881214541</v>
+        <v>0.08249530508771627</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03305699892224261</v>
+        <v>0.02821288186311936</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2173449489.434748</v>
+        <v>2639652333.166544</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1424506261164592</v>
+        <v>0.1255536799360452</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02059025903152138</v>
+        <v>0.02657103267106455</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2165066884.52565</v>
+        <v>2221300255.323043</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08761823523413551</v>
+        <v>0.1031074550604512</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02697247660829807</v>
+        <v>0.03315311354256838</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2043368190.833222</v>
+        <v>1385462575.225089</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1054803029186665</v>
+        <v>0.09565749912758549</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02912371773981811</v>
+        <v>0.02959995104440818</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2170618708.152084</v>
+        <v>1377621596.961518</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1638271432828107</v>
+        <v>0.1308380181767631</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02101449644219051</v>
+        <v>0.02278661169437846</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1758196502.738914</v>
+        <v>1748951004.880141</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1389424770406987</v>
+        <v>0.118228741506609</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04089267334653553</v>
+        <v>0.04870632797256402</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2145129920.732106</v>
+        <v>2850307249.037272</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1322769103927509</v>
+        <v>0.1369217200426025</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0304286915817362</v>
+        <v>0.04127674851453146</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4006779021.364746</v>
+        <v>2882575777.434327</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1085475900569758</v>
+        <v>0.1075499154441563</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0335183093517897</v>
+        <v>0.04474641561696473</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>75</v>
+      </c>
+      <c r="J42" t="n">
+        <v>193</v>
+      </c>
+      <c r="K42" t="n">
+        <v>77.82290030144448</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2765739378.609362</v>
+        <v>2040196783.709713</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1475839406176007</v>
+        <v>0.1279049235896065</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02596539685389388</v>
+        <v>0.02564533045745117</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1757254843.21647</v>
+        <v>1790182582.515471</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1016380916111459</v>
+        <v>0.09205657090849134</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03469055841078603</v>
+        <v>0.02993599020005976</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2251056236.534275</v>
+        <v>1780989393.574411</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1893519879568465</v>
+        <v>0.1720430742524145</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05587302914705506</v>
+        <v>0.05541163115085898</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4026647525.889956</v>
+        <v>3883162730.570158</v>
       </c>
       <c r="F46" t="n">
-        <v>0.138853406054237</v>
+        <v>0.1331895347656733</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05827219127304931</v>
+        <v>0.05293118540786521</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>111</v>
+      </c>
+      <c r="J46" t="n">
+        <v>193</v>
+      </c>
+      <c r="K46" t="n">
+        <v>123.1606475363898</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3208865041.184876</v>
+        <v>4631744894.392615</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1910109263482128</v>
+        <v>0.1455923188556241</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05590287107381556</v>
+        <v>0.0555698860738198</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>86</v>
+      </c>
+      <c r="J47" t="n">
+        <v>194</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4288248726.165736</v>
+        <v>4715598914.074116</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07997592320786746</v>
+        <v>0.09352211941613857</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03260807766284679</v>
+        <v>0.03325616956385082</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>92</v>
+      </c>
+      <c r="J48" t="n">
+        <v>194</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1202768172.060174</v>
+        <v>1761727015.610761</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1222341934533884</v>
+        <v>0.1897113404980917</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03031215554392026</v>
+        <v>0.03365562420009299</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3596302821.542188</v>
+        <v>3119323371.2524</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1784083180042776</v>
+        <v>0.111671882590538</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04681310536048859</v>
+        <v>0.04028496628228249</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>62</v>
+      </c>
+      <c r="J50" t="n">
+        <v>193</v>
+      </c>
+      <c r="K50" t="n">
+        <v>89.87727519147531</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1372019084.355098</v>
+        <v>1357177021.489661</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1897972334104095</v>
+        <v>0.1586203561083222</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03478983895141832</v>
+        <v>0.04446819219127129</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4264591865.722522</v>
+        <v>4523891356.953695</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0881380070176105</v>
+        <v>0.126671262129724</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04866819047259762</v>
+        <v>0.06018025403601122</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>135</v>
+      </c>
+      <c r="J52" t="n">
+        <v>193</v>
+      </c>
+      <c r="K52" t="n">
+        <v>122.1648798887247</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2964768191.332776</v>
+        <v>2799990722.598289</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1671532604907933</v>
+        <v>0.1973153635752461</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0351318430266484</v>
+        <v>0.02231253271944475</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3527813423.61522</v>
+        <v>4793417489.164365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1511268334293167</v>
+        <v>0.1329101994219078</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04350943784817713</v>
+        <v>0.03219467581753451</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>98</v>
+      </c>
+      <c r="J54" t="n">
+        <v>194</v>
+      </c>
+      <c r="K54" t="n">
+        <v>126.3661331199531</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3729444332.8771</v>
+        <v>3100636885.867344</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1965903556794101</v>
+        <v>0.181264267884391</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0307760167849965</v>
+        <v>0.0231499344682209</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>87</v>
+      </c>
+      <c r="J55" t="n">
+        <v>193</v>
+      </c>
+      <c r="K55" t="n">
+        <v>84.50228794477958</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1507408573.838393</v>
+        <v>1672970534.931561</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1638636797620958</v>
+        <v>0.1087799996179222</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05042645406786365</v>
+        <v>0.04011503631830163</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3864272333.155444</v>
+        <v>3787172602.405054</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1366507784324366</v>
+        <v>0.1144946541318459</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0275493357126477</v>
+        <v>0.02055792983982076</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>77</v>
+      </c>
+      <c r="J57" t="n">
+        <v>194</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1633960091.921788</v>
+        <v>1616342501.930047</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1587204461090701</v>
+        <v>0.1687024330388358</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03709987118975937</v>
+        <v>0.03940771615614158</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3464369243.105316</v>
+        <v>4072118802.184505</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09649035660601417</v>
+        <v>0.09388330068503434</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03229018757004475</v>
+        <v>0.0356544908779689</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>93</v>
+      </c>
+      <c r="J59" t="n">
+        <v>194</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2570667618.833268</v>
+        <v>2554084332.423148</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1688481086405</v>
+        <v>0.1468023175560587</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02963245546221163</v>
+        <v>0.02604994915660052</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="n">
+        <v>189</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2859952176.212681</v>
+        <v>2222259686.211716</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1404971117446747</v>
+        <v>0.1094299084644644</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02684002981544246</v>
+        <v>0.02930847909419171</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1329201562.63795</v>
+        <v>2089247109.192964</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1818631533737921</v>
+        <v>0.1913823306412515</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03837975606906831</v>
+        <v>0.03015899504118969</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3850187161.196703</v>
+        <v>4844713408.024117</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09721172968908336</v>
+        <v>0.1014419236020276</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03336006724590779</v>
+        <v>0.04277070823191376</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>95</v>
+      </c>
+      <c r="J63" t="n">
+        <v>194</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4876815762.4103</v>
+        <v>5476894974.873699</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1578967804473953</v>
+        <v>0.1190940578762738</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03479960004980454</v>
+        <v>0.03191113567602778</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>95</v>
+      </c>
+      <c r="J64" t="n">
+        <v>194</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3821506372.544684</v>
+        <v>5195155479.939077</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1499065160865062</v>
+        <v>0.1222453245645595</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02535671727160663</v>
+        <v>0.02341731892858358</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>158</v>
+      </c>
+      <c r="J65" t="n">
+        <v>194</v>
+      </c>
+      <c r="K65" t="n">
+        <v>125.2204986058174</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2765,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4527124204.237603</v>
+        <v>4115789861.247621</v>
       </c>
       <c r="F66" t="n">
-        <v>0.102977739834391</v>
+        <v>0.1319501472030396</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03979696165082182</v>
+        <v>0.04429707271498926</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>95</v>
+      </c>
+      <c r="J66" t="n">
+        <v>194</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2806339964.751998</v>
+        <v>2758441669.308942</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08054746341320072</v>
+        <v>0.06235174869419809</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05118046016348036</v>
+        <v>0.03278436552186397</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5893137911.269329</v>
+        <v>4133626848.61902</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1568627472549377</v>
+        <v>0.15089352666657</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04389955448610668</v>
+        <v>0.03366004953851118</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>98</v>
+      </c>
+      <c r="J68" t="n">
+        <v>193</v>
+      </c>
+      <c r="K68" t="n">
+        <v>118.1044230986692</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2217300488.852713</v>
+        <v>1686143474.108394</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1189430015334709</v>
+        <v>0.1272647744659408</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04586049721371136</v>
+        <v>0.04134858474866734</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2907,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3491299684.082836</v>
+        <v>2757159305.138994</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09564515561736066</v>
+        <v>0.08896868175254469</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04272265031999352</v>
+        <v>0.04512750144097179</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>28</v>
+      </c>
+      <c r="J70" t="n">
+        <v>193</v>
+      </c>
+      <c r="K70" t="n">
+        <v>63.83344154333561</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3461591738.922482</v>
+        <v>5215114876.150417</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1185393447645754</v>
+        <v>0.1310275476800335</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03106623276000386</v>
+        <v>0.03133042732592378</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>150</v>
+      </c>
+      <c r="J71" t="n">
+        <v>193</v>
+      </c>
+      <c r="K71" t="n">
+        <v>124.1037994827317</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1754645446.75127</v>
+        <v>1578726480.018714</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08868908688222626</v>
+        <v>0.1057451742155467</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03455024198909775</v>
+        <v>0.04604610608154995</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2861897232.762525</v>
+        <v>2373015309.745361</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0968369984498758</v>
+        <v>0.0858831765093004</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05261949380715656</v>
+        <v>0.03608968567955186</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3610916972.270262</v>
+        <v>2545357280.437969</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1161677596482479</v>
+        <v>0.1488878763797359</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0318330341535313</v>
+        <v>0.03524265717575083</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>55</v>
+      </c>
+      <c r="J74" t="n">
+        <v>189</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2484712557.950391</v>
+        <v>2233537013.512463</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1448956429775375</v>
+        <v>0.1501450253184087</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02460259684003714</v>
+        <v>0.02518787190206508</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4181069089.796196</v>
+        <v>4831270385.566504</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09609013660962275</v>
+        <v>0.1071161630276165</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02349764232369392</v>
+        <v>0.02197350804682181</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>88</v>
+      </c>
+      <c r="J76" t="n">
+        <v>194</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2208091296.275819</v>
+        <v>2094228984.180293</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1835098246806262</v>
+        <v>0.1836003089732043</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0280147797010099</v>
+        <v>0.03131231651401127</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4609695893.824581</v>
+        <v>3104348354.678497</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1133998840887698</v>
+        <v>0.1090916368874109</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04885435685186581</v>
+        <v>0.04006757923597581</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>98</v>
+      </c>
+      <c r="J78" t="n">
+        <v>191</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1559281675.559535</v>
+        <v>1521212501.724158</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1343897987900043</v>
+        <v>0.1473168647706054</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03336302979658297</v>
+        <v>0.03824648263045038</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3447564348.665605</v>
+        <v>3959032968.472752</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07835919775920532</v>
+        <v>0.07028004516619205</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02463614476510671</v>
+        <v>0.03089716532280804</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>95</v>
+      </c>
+      <c r="J80" t="n">
+        <v>193</v>
+      </c>
+      <c r="K80" t="n">
+        <v>90.11924605557645</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3768691938.616705</v>
+        <v>3636595867.417787</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09015325866240015</v>
+        <v>0.08372595428799387</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0254106684390767</v>
+        <v>0.02556235644444466</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>89</v>
+      </c>
+      <c r="J81" t="n">
+        <v>193</v>
+      </c>
+      <c r="K81" t="n">
+        <v>105.7591366339463</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5377637494.741241</v>
+        <v>5419668047.226367</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1573407557236372</v>
+        <v>0.2104488457717346</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02338548469363226</v>
+        <v>0.02390547177907347</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>143</v>
+      </c>
+      <c r="J82" t="n">
+        <v>194</v>
+      </c>
+      <c r="K82" t="n">
+        <v>130.6793799431936</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1840078748.886799</v>
+        <v>2080670015.234249</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1131380796770346</v>
+        <v>0.1181459742317497</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04386724815690931</v>
+        <v>0.03879486263084767</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2247770500.569119</v>
+        <v>2019661334.934058</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09352282109831676</v>
+        <v>0.1006676390611052</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04037370645180575</v>
+        <v>0.05014453500961318</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2898717604.704608</v>
+        <v>2806173326.417538</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1299193252536347</v>
+        <v>0.1639220270385575</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04605096945103462</v>
+        <v>0.04491899597301124</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2658014851.967096</v>
+        <v>1967265227.812447</v>
       </c>
       <c r="F86" t="n">
-        <v>0.146577948546664</v>
+        <v>0.1215325194690918</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02406967438455012</v>
+        <v>0.02304465665709223</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1213862788.972839</v>
+        <v>1124401613.970542</v>
       </c>
       <c r="F87" t="n">
-        <v>0.13881873378241</v>
+        <v>0.1596570120298307</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03916443541940231</v>
+        <v>0.03690948190832973</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3225521644.04251</v>
+        <v>2855144349.983033</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1483331539989098</v>
+        <v>0.1377118859759892</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02442035516585482</v>
+        <v>0.03879910234965595</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2848684093.85272</v>
+        <v>2686518236.414256</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1110763878751412</v>
+        <v>0.1329966794034479</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03857936021676945</v>
+        <v>0.03038710359974105</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1957163723.798835</v>
+        <v>1549827298.690533</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09848441372490718</v>
+        <v>0.1101636599732579</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04143147424472614</v>
+        <v>0.04402657756699035</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1282769316.404469</v>
+        <v>1775745990.330983</v>
       </c>
       <c r="F91" t="n">
-        <v>0.129581090412361</v>
+        <v>0.1365217266903263</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04717153211493946</v>
+        <v>0.05442099704686885</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2717418015.31938</v>
+        <v>2740476985.777337</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0954802078677409</v>
+        <v>0.07459284384295629</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03412532260912288</v>
+        <v>0.04431794015056399</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3051016731.175903</v>
+        <v>4177934755.058021</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1251142019131393</v>
+        <v>0.1025825048778851</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05141648663390064</v>
+        <v>0.05418916965216023</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>87</v>
+      </c>
+      <c r="J93" t="n">
+        <v>194</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1642038504.927277</v>
+        <v>1563305930.51749</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1580090246589406</v>
+        <v>0.118551760355556</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0408460918774096</v>
+        <v>0.02785818255213509</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2921108175.841558</v>
+        <v>2203041116.394468</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1320300966677352</v>
+        <v>0.1366540928390973</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03463966548340702</v>
+        <v>0.03465510316030301</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2297488667.438447</v>
+        <v>1858374867.630429</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1317359466516733</v>
+        <v>0.1403637435369597</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03503417782347013</v>
+        <v>0.03236210637890884</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3911096095.664613</v>
+        <v>3647941434.548806</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1631770493443728</v>
+        <v>0.1558114104179848</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02084699861591958</v>
+        <v>0.02612094792180188</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>94</v>
+      </c>
+      <c r="J97" t="n">
+        <v>193</v>
+      </c>
+      <c r="K97" t="n">
+        <v>119.2711925896107</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2726871174.156196</v>
+        <v>2736695920.696469</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08767172637059693</v>
+        <v>0.09033778621441138</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02456802016539941</v>
+        <v>0.02066699829463309</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>48</v>
+      </c>
+      <c r="J98" t="n">
+        <v>193</v>
+      </c>
+      <c r="K98" t="n">
+        <v>60.99244327957923</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3212166931.64645</v>
+        <v>2752713096.34346</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1159438200982437</v>
+        <v>0.1378409060599819</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03364982508226923</v>
+        <v>0.02274335479089913</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3737881187.404522</v>
+        <v>4385093935.668406</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1188918935006813</v>
+        <v>0.1417513090804741</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02039582762793298</v>
+        <v>0.02612619856907035</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>80</v>
+      </c>
+      <c r="J100" t="n">
+        <v>194</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2890315793.526661</v>
+        <v>2918666021.414671</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2079499394854277</v>
+        <v>0.1897348698551538</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0352346479999822</v>
+        <v>0.04159370544882814</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
